--- a/redis.xlsx
+++ b/redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="练习" sheetId="2" r:id="rId1"/>
@@ -405,6 +405,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,7 +418,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1295,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L208"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="62" spans="2:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B62" s="1"/>
-      <c r="L62" s="11" t="s">
+      <c r="L62" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1547,26 +1547,26 @@
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="9"/>
+      <c r="G8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="K8" s="7" t="s">
+      <c r="H8" s="9"/>
+      <c r="K8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1596,26 +1596,26 @@
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="9"/>
+      <c r="G8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="K8" s="7" t="s">
+      <c r="H8" s="9"/>
+      <c r="K8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
